--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2063604.753191709</v>
+        <v>2062282.189379773</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5866991.033948783</v>
+        <v>5866991.033948784</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1783678.472736053</v>
+        <v>1783678.472736052</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7452882.041655223</v>
+        <v>7452882.041655225</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>149.5563651221337</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -676,10 +676,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>65.26698452809767</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>150.7804392865125</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>164.791087998863</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>256.9725521208318</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>295.580350051341</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>156.221823189691</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>168.6622545853704</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>388.6597985499425</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>16.8201079258493</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>241.9195291682249</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>89.19834284474685</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>343.4619167409753</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -1384,10 +1384,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>269.9562877695847</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1432,7 +1432,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>117.4243105255555</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -1584,10 +1584,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>254.1193402654922</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
@@ -1609,7 +1609,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>183.5236380974013</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -1660,19 +1660,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>300.4920170745502</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>41.24458363092515</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1827,13 +1827,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>30.60798014229358</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>183.5236380974013</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.8536012758696</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -2067,10 +2067,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2095,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>304.2743438296833</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>182.7428255394315</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2335,7 +2335,7 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H23" t="n">
-        <v>158.2312817147879</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.234755280439</v>
@@ -2377,7 +2377,7 @@
         <v>254.4761865113606</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>328.5507186872962</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2417,7 +2417,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I24" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>160.2222321506107</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>13.0292221731973</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T25" t="n">
         <v>236.8250266956711</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2611,10 +2611,10 @@
         <v>219.234755280439</v>
       </c>
       <c r="U26" t="n">
-        <v>254.4761865113606</v>
+        <v>106.6619097956847</v>
       </c>
       <c r="V26" t="n">
-        <v>198.5249024012086</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2654,7 +2654,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I27" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>117.0812829725283</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>105.0629767141853</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>388.3305074382559</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>219.234755280439</v>
@@ -2860,7 +2860,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>249.1130296057163</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I30" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U31" t="n">
-        <v>24.09702927570191</v>
+        <v>226.8002169556234</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>183.4965574034472</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3049,7 +3049,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I32" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508507</v>
       </c>
       <c r="U32" t="n">
         <v>254.4761865113606</v>
@@ -3128,7 +3128,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I33" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>66.07896560696119</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>236.8250266956711</v>
@@ -3246,16 +3246,16 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V34" t="n">
-        <v>222.6949175313588</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>173.7190346830451</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3286,7 +3286,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I35" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T35" t="n">
-        <v>219.234755280439</v>
+        <v>71.42047856476314</v>
       </c>
       <c r="U35" t="n">
         <v>254.4761865113606</v>
@@ -3365,7 +3365,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I36" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>117.0812829725283</v>
       </c>
       <c r="U37" t="n">
-        <v>227.664820132381</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3505,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>179.3230888550386</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.234755280439</v>
+        <v>122.5603156417023</v>
       </c>
       <c r="U38" t="n">
         <v>254.4761865113606</v>
@@ -3602,7 +3602,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I39" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>66.07896560696119</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.874515115780491</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3757,10 +3757,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H41" t="n">
-        <v>79.34530250563729</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I41" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508498</v>
       </c>
       <c r="U41" t="n">
         <v>254.4761865113606</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5010685613433</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>217.9354172723949</v>
+        <v>53.69857052688859</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H44" t="n">
-        <v>306.0455584304623</v>
+        <v>79.34530250563729</v>
       </c>
       <c r="I44" t="n">
         <v>78.8859792091497</v>
@@ -4045,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>170.2270503965661</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.5215535887309</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>27.00225142559109</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>940.1822479010976</v>
+        <v>974.6830684215697</v>
       </c>
       <c r="C2" t="n">
-        <v>789.1152124241949</v>
+        <v>564.5584777348398</v>
       </c>
       <c r="D2" t="n">
-        <v>384.6512825172554</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E2" t="n">
-        <v>374.3514710745562</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F2" t="n">
-        <v>357.3614630686478</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G2" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4333,16 +4333,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960205</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N2" t="n">
-        <v>692.8507596625949</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
         <v>1209.69369432892</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1730.766722221062</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V2" t="n">
-        <v>1730.766722221062</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W2" t="n">
-        <v>1347.00642135623</v>
+        <v>1447.433488874781</v>
       </c>
       <c r="X2" t="n">
-        <v>946.3630235251831</v>
+        <v>1046.790091043734</v>
       </c>
       <c r="Y2" t="n">
-        <v>946.3630235251831</v>
+        <v>980.8638440456551</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960205</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>537.7254774811266</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1054.568412147452</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="O3" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>726.1057759337085</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C4" t="n">
-        <v>726.1057759337085</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D4" t="n">
-        <v>726.1057759337085</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>726.1057759337085</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>726.1057759337085</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2088.254281480102</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1901.862513360013</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1749.559039333232</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1466.760891879356</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1192.875146818878</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W4" t="n">
-        <v>913.8054823277529</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="X4" t="n">
-        <v>913.8054823277529</v>
+        <v>538.8087471882716</v>
       </c>
       <c r="Y4" t="n">
-        <v>913.8054823277529</v>
+        <v>372.3531027449756</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166.6022603407614</v>
+        <v>1141.815353557804</v>
       </c>
       <c r="C5" t="n">
-        <v>160.5180736944356</v>
+        <v>882.247119092317</v>
       </c>
       <c r="D5" t="n">
-        <v>160.0945478279002</v>
+        <v>881.8235932257816</v>
       </c>
       <c r="E5" t="n">
-        <v>149.794736385201</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F5" t="n">
-        <v>132.8047283792926</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M5" t="n">
-        <v>295.9505570973564</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="N5" t="n">
-        <v>812.7934917636817</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O5" t="n">
-        <v>1329.636426430007</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1608.987305686471</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1259.149751022952</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>875.3894501581206</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X5" t="n">
-        <v>875.3894501581206</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y5" t="n">
-        <v>576.8234400052509</v>
+        <v>1552.036533222293</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4652,19 +4652,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>690.384199457534</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N6" t="n">
-        <v>690.384199457534</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767163</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433488</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>646.4989700443776</v>
+        <v>511.7780006329159</v>
       </c>
       <c r="C7" t="n">
-        <v>475.4055976060941</v>
+        <v>511.7780006329159</v>
       </c>
       <c r="D7" t="n">
-        <v>315.9109529290042</v>
+        <v>352.2833559558259</v>
       </c>
       <c r="E7" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4752,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V7" t="n">
-        <v>1297.278237189974</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="W7" t="n">
-        <v>1297.278237189974</v>
+        <v>974.8575613844678</v>
       </c>
       <c r="X7" t="n">
-        <v>1058.934375049657</v>
+        <v>736.5136992441512</v>
       </c>
       <c r="Y7" t="n">
-        <v>834.198676438422</v>
+        <v>511.7780006329159</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>876.4530309326553</v>
+        <v>974.6830684215697</v>
       </c>
       <c r="C8" t="n">
-        <v>466.3284402459254</v>
+        <v>968.5988817752439</v>
       </c>
       <c r="D8" t="n">
-        <v>73.74278514497341</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E8" t="n">
-        <v>63.44297370227418</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>176.0078249962696</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>692.8507596625949</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>1209.69369432892</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>1726.536628995245</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N8" t="n">
-        <v>1726.536628995245</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O8" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1225.22700482164</v>
       </c>
       <c r="X8" t="n">
-        <v>1687.610883649055</v>
+        <v>980.8638440456551</v>
       </c>
       <c r="Y8" t="n">
-        <v>1286.674210597145</v>
+        <v>980.8638440456551</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N9" t="n">
         <v>1192.007362767163</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.6466025934674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>373.6466025934674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>373.6466025934674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>373.6466025934674</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>209.0154767040586</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1299.499495805762</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U10" t="n">
-        <v>1016.701348351886</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V10" t="n">
-        <v>742.815603291408</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W10" t="n">
-        <v>463.7459388002824</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X10" t="n">
-        <v>373.6466025934674</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y10" t="n">
-        <v>373.6466025934674</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2102.237727455811</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C11" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>452.2785793327262</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
         <v>179.5954603735497</v>
@@ -5080,13 +5080,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>562.1177108836107</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N12" t="n">
-        <v>1435.775802995229</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>642.438739342527</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="C13" t="n">
-        <v>642.438739342527</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="D13" t="n">
-        <v>642.438739342527</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="E13" t="n">
-        <v>523.8283246702488</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="F13" t="n">
-        <v>359.19719878084</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G13" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H13" t="n">
         <v>209.5897435862967</v>
@@ -5232,19 +5232,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>1383.093855288175</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V13" t="n">
-        <v>1109.208110227697</v>
+        <v>843.6095055459233</v>
       </c>
       <c r="W13" t="n">
-        <v>830.1384457365714</v>
+        <v>564.5398410547976</v>
       </c>
       <c r="X13" t="n">
-        <v>830.1384457365714</v>
+        <v>564.5398410547976</v>
       </c>
       <c r="Y13" t="n">
-        <v>830.1384457365714</v>
+        <v>564.5398410547976</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2324.444211508952</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
         <v>2139.066799289355</v>
@@ -5308,22 +5308,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>3920.005762921231</v>
+        <v>3744.109543557316</v>
       </c>
       <c r="W14" t="n">
-        <v>3536.245462056399</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X14" t="n">
-        <v>3135.602064225352</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>2734.665391173442</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>549.0499539559215</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>549.0499539559215</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N15" t="n">
-        <v>1085.931338311245</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O15" t="n">
-        <v>1789.888428857139</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P15" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>523.8283246702488</v>
+        <v>134.9048932774159</v>
       </c>
       <c r="C16" t="n">
-        <v>523.8283246702488</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>523.8283246702488</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8283246702488</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W16" t="n">
-        <v>554.7454763291312</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X16" t="n">
-        <v>554.7454763291312</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="Y16" t="n">
-        <v>523.8283246702488</v>
+        <v>322.6045996714603</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2139.066799289355</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5530,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4341.526397105643</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4084.465905365153</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V17" t="n">
-        <v>3734.628350701634</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W17" t="n">
-        <v>3350.868049836802</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>2950.224652005755</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2549.287978953845</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>727.8877385833455</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>727.8877385833455</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>568.3930939062554</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>407.4822787745749</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5700,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1436.250826191383</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1436.250826191383</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V19" t="n">
-        <v>1162.365081130905</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W19" t="n">
-        <v>883.2954166397794</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X19" t="n">
-        <v>883.2954166397794</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y19" t="n">
-        <v>883.2954166397794</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2144.727460069145</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>1734.602869382415</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5788,16 +5788,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3740.289011481424</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3356.528710616592</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>2955.885312785545</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2554.948639733635</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>701.0885758333507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>529.9952033950672</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>370.5005587179772</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5940,22 +5940,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V22" t="n">
-        <v>1348.756849250995</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W22" t="n">
-        <v>1348.756849250995</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.412987110678</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y22" t="n">
-        <v>885.6772884994431</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2315.763990092807</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C23" t="n">
-        <v>1905.639399406077</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D23" t="n">
-        <v>1501.175469499138</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E23" t="n">
-        <v>1086.835254016034</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F23" t="n">
-        <v>665.804841969722</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G23" t="n">
-        <v>257.2495415964485</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H23" t="n">
         <v>97.41996410676373</v>
@@ -5992,7 +5992,7 @@
         <v>365.9950463732503</v>
       </c>
       <c r="K23" t="n">
-        <v>925.7208439477955</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L23" t="n">
         <v>1665.067141547876</v>
@@ -6001,7 +6001,7 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N23" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O23" t="n">
         <v>3926.785084202961</v>
@@ -6016,25 +6016,25 @@
         <v>4870.998205338186</v>
       </c>
       <c r="S23" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T23" t="n">
-        <v>4518.209749210383</v>
+        <v>4649.548957580168</v>
       </c>
       <c r="U23" t="n">
-        <v>4261.163096168605</v>
+        <v>4392.50230453839</v>
       </c>
       <c r="V23" t="n">
-        <v>3911.325541505086</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W23" t="n">
-        <v>3527.565240640254</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X23" t="n">
-        <v>3126.921842809207</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y23" t="n">
-        <v>2725.985169757297</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>97.41996410676373</v>
       </c>
       <c r="L24" t="n">
-        <v>374.4252593630554</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="M24" t="n">
-        <v>1240.386849979366</v>
+        <v>963.3815547230743</v>
       </c>
       <c r="N24" t="n">
-        <v>2137.637783597812</v>
+        <v>1050.674000801944</v>
       </c>
       <c r="O24" t="n">
-        <v>2137.637783597812</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="P24" t="n">
-        <v>2137.637783597812</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q24" t="n">
         <v>2137.637783597812</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>259.2606026427342</v>
+        <v>716.0921930522084</v>
       </c>
       <c r="C25" t="n">
-        <v>97.41996410676373</v>
+        <v>544.9988206139249</v>
       </c>
       <c r="D25" t="n">
-        <v>97.41996410676373</v>
+        <v>385.5041759368349</v>
       </c>
       <c r="E25" t="n">
-        <v>97.41996410676373</v>
+        <v>224.5933608051544</v>
       </c>
       <c r="F25" t="n">
-        <v>97.41996410676373</v>
+        <v>224.5933608051544</v>
       </c>
       <c r="G25" t="n">
-        <v>97.41996410676373</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="H25" t="n">
-        <v>97.41996410676373</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I25" t="n">
         <v>97.41996410676373</v>
@@ -6174,25 +6174,25 @@
         <v>1702.21247802243</v>
       </c>
       <c r="S25" t="n">
-        <v>1702.21247802243</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T25" t="n">
-        <v>1462.995279339934</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="U25" t="n">
-        <v>1462.995279339934</v>
+        <v>995.161857543334</v>
       </c>
       <c r="V25" t="n">
-        <v>1189.109534279456</v>
+        <v>995.161857543334</v>
       </c>
       <c r="W25" t="n">
-        <v>910.0398697883304</v>
+        <v>716.0921930522084</v>
       </c>
       <c r="X25" t="n">
-        <v>671.6960076480138</v>
+        <v>716.0921930522084</v>
       </c>
       <c r="Y25" t="n">
-        <v>446.9603090367785</v>
+        <v>716.0921930522084</v>
       </c>
     </row>
     <row r="26">
@@ -6259,7 +6259,7 @@
         <v>4518.209749210382</v>
       </c>
       <c r="U26" t="n">
-        <v>4261.163096168604</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V26" t="n">
         <v>4060.632891722939</v>
@@ -6305,22 +6305,22 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J27" t="n">
-        <v>298.803175282419</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="K27" t="n">
-        <v>374.4252593630554</v>
+        <v>567.8743197625565</v>
       </c>
       <c r="L27" t="n">
-        <v>374.4252593630554</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="M27" t="n">
-        <v>1240.386849979366</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="N27" t="n">
-        <v>2137.637783597812</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="O27" t="n">
-        <v>2137.637783597812</v>
+        <v>1558.609758636149</v>
       </c>
       <c r="P27" t="n">
         <v>2137.637783597812</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1183.652854113933</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C28" t="n">
-        <v>1012.55948167565</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D28" t="n">
-        <v>853.0648369985595</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E28" t="n">
-        <v>692.1540218668789</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F28" t="n">
-        <v>527.5228959774702</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G28" t="n">
-        <v>360.3500994508607</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H28" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I28" t="n">
         <v>97.41996410676371</v>
@@ -6414,22 +6414,22 @@
         <v>1702.21247802243</v>
       </c>
       <c r="T28" t="n">
-        <v>1702.21247802243</v>
+        <v>1583.948555827957</v>
       </c>
       <c r="U28" t="n">
-        <v>1702.21247802243</v>
+        <v>1301.154640803964</v>
       </c>
       <c r="V28" t="n">
-        <v>1702.21247802243</v>
+        <v>1027.268895743486</v>
       </c>
       <c r="W28" t="n">
-        <v>1702.21247802243</v>
+        <v>748.1992312523601</v>
       </c>
       <c r="X28" t="n">
-        <v>1596.088259119213</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="Y28" t="n">
-        <v>1371.352560507977</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="29">
@@ -6448,19 +6448,19 @@
         <v>1650.482819716991</v>
       </c>
       <c r="E29" t="n">
-        <v>1236.142604233888</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F29" t="n">
-        <v>815.112192187575</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G29" t="n">
-        <v>406.5568918143015</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H29" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I29" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J29" t="n">
         <v>365.9950463732503</v>
@@ -6484,31 +6484,31 @@
         <v>4480.322041270214</v>
       </c>
       <c r="Q29" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R29" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S29" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T29" t="n">
-        <v>4518.209749210383</v>
+        <v>4649.548957580167</v>
       </c>
       <c r="U29" t="n">
-        <v>4261.163096168605</v>
+        <v>4392.502304538389</v>
       </c>
       <c r="V29" t="n">
-        <v>3911.325541505086</v>
+        <v>4042.664749874869</v>
       </c>
       <c r="W29" t="n">
-        <v>3527.565240640254</v>
+        <v>3658.904449010038</v>
       </c>
       <c r="X29" t="n">
-        <v>3126.921842809207</v>
+        <v>3258.26105117899</v>
       </c>
       <c r="Y29" t="n">
-        <v>2875.29251997515</v>
+        <v>2857.32437812708</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I30" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J30" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="K30" t="n">
-        <v>97.41996410676373</v>
+        <v>567.8743197625565</v>
       </c>
       <c r="L30" t="n">
-        <v>97.41996410676373</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M30" t="n">
-        <v>963.3815547230743</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N30" t="n">
-        <v>1860.632488341521</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O30" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P30" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q30" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R30" t="n">
         <v>2137.637783597812</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4352.438581429689</v>
+        <v>268.5133365450472</v>
       </c>
       <c r="C31" t="n">
-        <v>4181.345208991405</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D31" t="n">
-        <v>4021.850564314316</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E31" t="n">
-        <v>3860.939749182635</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F31" t="n">
-        <v>3696.308623293226</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G31" t="n">
-        <v>3529.135826766617</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H31" t="n">
-        <v>3380.218257642934</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I31" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J31" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K31" t="n">
-        <v>3449.053008630019</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L31" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M31" t="n">
-        <v>4021.442036604621</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N31" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O31" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P31" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q31" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R31" t="n">
-        <v>4789.214420046789</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S31" t="n">
-        <v>4789.214420046789</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T31" t="n">
-        <v>4789.214420046789</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U31" t="n">
-        <v>4764.873986434969</v>
+        <v>1233.904151101931</v>
       </c>
       <c r="V31" t="n">
-        <v>4764.873986434969</v>
+        <v>960.0184060414525</v>
       </c>
       <c r="W31" t="n">
-        <v>4764.873986434969</v>
+        <v>680.9487415503269</v>
       </c>
       <c r="X31" t="n">
-        <v>4764.873986434969</v>
+        <v>680.9487415503269</v>
       </c>
       <c r="Y31" t="n">
-        <v>4540.138287823734</v>
+        <v>456.2130429390916</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2315.763990092806</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C32" t="n">
-        <v>1905.639399406076</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D32" t="n">
-        <v>1501.175469499137</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F32" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G32" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H32" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I32" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J32" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K32" t="n">
-        <v>925.7208439477953</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L32" t="n">
         <v>1665.067141547876</v>
@@ -6718,34 +6718,34 @@
         <v>3926.785084202961</v>
       </c>
       <c r="P32" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q32" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R32" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S32" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T32" t="n">
-        <v>4518.209749210382</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U32" t="n">
-        <v>4261.163096168604</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V32" t="n">
-        <v>3911.325541505085</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W32" t="n">
-        <v>3527.565240640253</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X32" t="n">
-        <v>3126.921842809206</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y32" t="n">
-        <v>2725.985169757296</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I33" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J33" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="K33" t="n">
-        <v>97.41996410676371</v>
+        <v>516.4015578916566</v>
       </c>
       <c r="L33" t="n">
-        <v>374.4252593630554</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M33" t="n">
-        <v>1240.386849979366</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N33" t="n">
-        <v>2137.637783597812</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O33" t="n">
-        <v>2137.637783597812</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P33" t="n">
-        <v>2137.637783597812</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q33" t="n">
         <v>2137.637783597812</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>688.4337111091506</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="C34" t="n">
-        <v>688.4337111091506</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="D34" t="n">
-        <v>688.4337111091506</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E34" t="n">
-        <v>527.5228959774702</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F34" t="n">
-        <v>527.5228959774702</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G34" t="n">
-        <v>360.3500994508607</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H34" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I34" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J34" t="n">
         <v>116.8792779475706</v>
@@ -6882,28 +6882,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R34" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S34" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T34" t="n">
-        <v>1196.171987275931</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U34" t="n">
-        <v>913.3780722519373</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V34" t="n">
-        <v>688.4337111091506</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W34" t="n">
-        <v>688.4337111091506</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="X34" t="n">
-        <v>688.4337111091506</v>
+        <v>388.9020926240204</v>
       </c>
       <c r="Y34" t="n">
-        <v>688.4337111091506</v>
+        <v>164.1663940127851</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2315.763990092806</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C35" t="n">
-        <v>1905.639399406076</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D35" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F35" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G35" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H35" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I35" t="n">
         <v>97.41996410676371</v>
@@ -6952,7 +6952,7 @@
         <v>3254.588416372258</v>
       </c>
       <c r="O35" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P35" t="n">
         <v>4480.322041270213</v>
@@ -6967,22 +6967,22 @@
         <v>4739.658996968401</v>
       </c>
       <c r="T35" t="n">
-        <v>4518.209749210382</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U35" t="n">
-        <v>4261.163096168604</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V35" t="n">
-        <v>3911.325541505085</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W35" t="n">
-        <v>3527.565240640253</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X35" t="n">
-        <v>3126.921842809206</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y35" t="n">
-        <v>2725.985169757296</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J36" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K36" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L36" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M36" t="n">
-        <v>661.3588250177029</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.609758636149</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O36" t="n">
-        <v>1558.609758636149</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P36" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q36" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R36" t="n">
         <v>2137.637783597812</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>268.5133365450472</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C37" t="n">
         <v>97.41996410676371</v>
@@ -7125,22 +7125,22 @@
         <v>1702.21247802243</v>
       </c>
       <c r="T37" t="n">
-        <v>1702.21247802243</v>
+        <v>1583.948555827957</v>
       </c>
       <c r="U37" t="n">
-        <v>1472.248013242247</v>
+        <v>1301.154640803964</v>
       </c>
       <c r="V37" t="n">
-        <v>1198.362268181769</v>
+        <v>1027.268895743486</v>
       </c>
       <c r="W37" t="n">
-        <v>919.2926036906435</v>
+        <v>748.1992312523601</v>
       </c>
       <c r="X37" t="n">
-        <v>680.9487415503269</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="Y37" t="n">
-        <v>456.2130429390916</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2315.763990092807</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C38" t="n">
         <v>2134.629556905899</v>
@@ -7174,7 +7174,7 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J38" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K38" t="n">
         <v>925.7208439477949</v>
@@ -7201,25 +7201,25 @@
         <v>4870.998205338186</v>
       </c>
       <c r="S38" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T38" t="n">
-        <v>4518.209749210383</v>
+        <v>4747.199906710204</v>
       </c>
       <c r="U38" t="n">
-        <v>4261.163096168605</v>
+        <v>4490.153253668426</v>
       </c>
       <c r="V38" t="n">
-        <v>3911.325541505086</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W38" t="n">
-        <v>3527.565240640254</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X38" t="n">
-        <v>3126.921842809207</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y38" t="n">
-        <v>2725.985169757297</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="39">
@@ -7259,16 +7259,16 @@
         <v>567.8743197625565</v>
       </c>
       <c r="L39" t="n">
-        <v>567.8743197625565</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="M39" t="n">
-        <v>1412.097852308888</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="N39" t="n">
-        <v>1412.097852308888</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="O39" t="n">
-        <v>2137.637783597812</v>
+        <v>1974.19860028903</v>
       </c>
       <c r="P39" t="n">
         <v>2137.637783597812</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.8119036381554</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="C40" t="n">
-        <v>588.7185311998719</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="D40" t="n">
-        <v>429.2238865227819</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E40" t="n">
-        <v>429.2238865227819</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F40" t="n">
-        <v>264.5927606333731</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G40" t="n">
         <v>97.41996410676373</v>
@@ -7356,28 +7356,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R40" t="n">
-        <v>1694.258422349925</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S40" t="n">
-        <v>1694.258422349925</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T40" t="n">
-        <v>1455.041223667429</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U40" t="n">
-        <v>1172.247308643435</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V40" t="n">
-        <v>1172.247308643435</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W40" t="n">
-        <v>1172.247308643435</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="X40" t="n">
-        <v>1172.247308643435</v>
+        <v>388.9020926240204</v>
       </c>
       <c r="Y40" t="n">
-        <v>947.5116100321998</v>
+        <v>164.1663940127851</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2315.763990092806</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C41" t="n">
-        <v>1905.639399406076</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D41" t="n">
-        <v>1501.175469499137</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E41" t="n">
-        <v>1086.835254016034</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F41" t="n">
-        <v>665.8048419697211</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G41" t="n">
-        <v>257.2495415964476</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H41" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I41" t="n">
         <v>97.41996410676371</v>
       </c>
       <c r="J41" t="n">
-        <v>365.9950463732501</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K41" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L41" t="n">
         <v>1665.067141547876</v>
       </c>
       <c r="M41" t="n">
-        <v>2471.155711445508</v>
+        <v>2471.155711445509</v>
       </c>
       <c r="N41" t="n">
-        <v>3254.588416372257</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O41" t="n">
         <v>3926.78508420296</v>
       </c>
       <c r="P41" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q41" t="n">
         <v>4819.791607344924</v>
@@ -7438,25 +7438,25 @@
         <v>4870.998205338185</v>
       </c>
       <c r="S41" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T41" t="n">
-        <v>4518.209749210382</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U41" t="n">
-        <v>4261.163096168604</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V41" t="n">
-        <v>3911.325541505085</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W41" t="n">
-        <v>3527.565240640253</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X41" t="n">
-        <v>3126.921842809206</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y41" t="n">
-        <v>2725.985169757296</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J42" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K42" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L42" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M42" t="n">
-        <v>963.3815547230743</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N42" t="n">
-        <v>963.3815547230743</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O42" t="n">
-        <v>1197.185907129206</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P42" t="n">
-        <v>1776.213932090868</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q42" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R42" t="n">
         <v>2137.637783597812</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1069.640287893519</v>
+        <v>573.0049744341466</v>
       </c>
       <c r="C43" t="n">
-        <v>898.5469154552359</v>
+        <v>573.0049744341466</v>
       </c>
       <c r="D43" t="n">
-        <v>739.0522707781458</v>
+        <v>413.5103297570565</v>
       </c>
       <c r="E43" t="n">
-        <v>578.1414556464653</v>
+        <v>413.5103297570565</v>
       </c>
       <c r="F43" t="n">
         <v>413.5103297570565</v>
@@ -7599,22 +7599,22 @@
         <v>1702.21247802243</v>
       </c>
       <c r="T43" t="n">
-        <v>1702.21247802243</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U43" t="n">
-        <v>1702.21247802243</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V43" t="n">
-        <v>1702.21247802243</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W43" t="n">
-        <v>1702.21247802243</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="X43" t="n">
-        <v>1482.075692898799</v>
+        <v>573.0049744341466</v>
       </c>
       <c r="Y43" t="n">
-        <v>1257.339994287564</v>
+        <v>573.0049744341466</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2544.754147592629</v>
+        <v>2315.763990092806</v>
       </c>
       <c r="C44" t="n">
-        <v>2134.629556905899</v>
+        <v>1905.639399406076</v>
       </c>
       <c r="D44" t="n">
-        <v>1730.16562699896</v>
+        <v>1501.175469499137</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.825411515857</v>
+        <v>1086.835254016034</v>
       </c>
       <c r="F44" t="n">
-        <v>894.7949994695443</v>
+        <v>665.8048419697211</v>
       </c>
       <c r="G44" t="n">
-        <v>486.2396990962708</v>
+        <v>257.2495415964476</v>
       </c>
       <c r="H44" t="n">
         <v>177.1027713887331</v>
@@ -7648,10 +7648,10 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J44" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K44" t="n">
-        <v>925.7208439477953</v>
+        <v>925.7208439477952</v>
       </c>
       <c r="L44" t="n">
         <v>1665.067141547876</v>
@@ -7663,13 +7663,13 @@
         <v>3254.588416372258</v>
       </c>
       <c r="O44" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P44" t="n">
         <v>4480.322041270214</v>
       </c>
       <c r="Q44" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R44" t="n">
         <v>4870.998205338185</v>
@@ -7693,7 +7693,7 @@
         <v>3126.921842809206</v>
       </c>
       <c r="Y44" t="n">
-        <v>2954.975327257119</v>
+        <v>2725.985169757296</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J45" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K45" t="n">
-        <v>567.8743197625565</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L45" t="n">
-        <v>567.8743197625565</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M45" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N45" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O45" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P45" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q45" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R45" t="n">
         <v>2137.637783597812</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3437.299063860803</v>
+        <v>1024.158209436843</v>
       </c>
       <c r="C46" t="n">
-        <v>3266.205691422519</v>
+        <v>853.0648369985595</v>
       </c>
       <c r="D46" t="n">
-        <v>3266.205691422519</v>
+        <v>853.0648369985595</v>
       </c>
       <c r="E46" t="n">
-        <v>3266.205691422519</v>
+        <v>692.1540218668789</v>
       </c>
       <c r="F46" t="n">
-        <v>3266.205691422519</v>
+        <v>527.5228959774702</v>
       </c>
       <c r="G46" t="n">
-        <v>3266.205691422519</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="H46" t="n">
-        <v>3266.205691422519</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I46" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J46" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K46" t="n">
-        <v>3449.053008630018</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L46" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M46" t="n">
-        <v>4021.44203660462</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N46" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O46" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P46" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q46" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R46" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S46" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T46" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="U46" t="n">
-        <v>4588.204290314192</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="V46" t="n">
-        <v>4314.318545253714</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="W46" t="n">
-        <v>4035.248880762588</v>
+        <v>1674.937476582439</v>
       </c>
       <c r="X46" t="n">
-        <v>3796.905018622271</v>
+        <v>1436.593614442123</v>
       </c>
       <c r="Y46" t="n">
-        <v>3572.169320011036</v>
+        <v>1211.857915830887</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>224.7351163062146</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>228.5110173896169</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>558.5343765177352</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491206</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
         <v>89.13638967321712</v>
@@ -8224,7 +8224,7 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>269.8552598673813</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
@@ -8233,13 +8233,13 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>494.5586588013271</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,19 +8300,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>564.2543476875381</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>564.4415429491204</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>208.9223179663055</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>337.5073157537831</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>232.5803491573229</v>
+        <v>559.8834573428703</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
@@ -8768,25 +8768,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>531.1743980747688</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N15" t="n">
-        <v>595.4978220354909</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>664.9610054731837</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,25 +9719,25 @@
         <v>42.71231595856359</v>
       </c>
       <c r="K24" t="n">
-        <v>41.02972279421733</v>
+        <v>41.02972279421732</v>
       </c>
       <c r="L24" t="n">
-        <v>316.022723748254</v>
+        <v>36.21939520654516</v>
       </c>
       <c r="M24" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>117.5364283150039</v>
       </c>
       <c r="O24" t="n">
-        <v>35.95062976461624</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>36.76253149458877</v>
+        <v>36.76253149458876</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>53.31116889588059</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>42.71231595856359</v>
       </c>
       <c r="K27" t="n">
-        <v>117.4156663100116</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>36.21939520654516</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978727</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654937</v>
       </c>
       <c r="O27" t="n">
-        <v>35.95062976461624</v>
+        <v>349.0325384878929</v>
       </c>
       <c r="P27" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.99626817861591</v>
+        <v>44.9962681786159</v>
       </c>
       <c r="R27" t="n">
         <v>53.31116889588059</v>
@@ -10193,28 +10193,28 @@
         <v>42.71231595856359</v>
       </c>
       <c r="K30" t="n">
-        <v>41.02972279421733</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>36.21939520654516</v>
+        <v>636.3405346980497</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978727</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654937</v>
       </c>
       <c r="O30" t="n">
-        <v>315.753958306325</v>
+        <v>35.95062976461623</v>
       </c>
       <c r="P30" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,25 +10430,25 @@
         <v>42.71231595856359</v>
       </c>
       <c r="K33" t="n">
-        <v>41.02972279421733</v>
+        <v>464.2434538900687</v>
       </c>
       <c r="L33" t="n">
-        <v>316.022723748254</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978727</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654937</v>
       </c>
       <c r="O33" t="n">
-        <v>35.95062976461624</v>
+        <v>35.95062976461623</v>
       </c>
       <c r="P33" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>53.31116889588059</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>41.02972279421733</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>36.21939520654516</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M36" t="n">
-        <v>603.98282009114</v>
+        <v>34.34760704978727</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654937</v>
       </c>
       <c r="O36" t="n">
-        <v>35.95062976461624</v>
+        <v>35.95062976461623</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,22 +10907,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>36.21939520654516</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>887.0986500258796</v>
+        <v>34.34760704978727</v>
       </c>
       <c r="N39" t="n">
-        <v>29.36224035654939</v>
+        <v>29.36224035654937</v>
       </c>
       <c r="O39" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>36.76253149458877</v>
+        <v>201.8526156448741</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.99626817861591</v>
+        <v>44.9962681786159</v>
       </c>
       <c r="R39" t="n">
         <v>53.31116889588059</v>
@@ -11068,7 +11068,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>877.4504173780083</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11138,22 +11138,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>41.02972279421733</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>36.21939520654516</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978728</v>
       </c>
       <c r="N42" t="n">
         <v>29.36224035654939</v>
       </c>
       <c r="O42" t="n">
-        <v>272.116642296062</v>
+        <v>35.95062976461624</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
@@ -11162,7 +11162,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920609</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>36.21939520654516</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M45" t="n">
-        <v>887.0986500258796</v>
+        <v>34.34760704978728</v>
       </c>
       <c r="N45" t="n">
         <v>29.36224035654939</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461624</v>
       </c>
       <c r="P45" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>62.56142803888724</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>37.84312462897446</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>41.87739645480826</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>17.02754734438108</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>222.4997066824612</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>45.84716204233393</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>128.1378550829755</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23664,16 +23664,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.8803614828294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>36.46078111520842</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.96910805423434</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23940,13 +23940,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>42.06483528720082</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.079883790672454</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24147,7 +24147,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>147.8142767156745</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>78.8859792091497</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>17.78846042958793</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>9.160206563289933</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5010685613433</v>
+        <v>152.471846388146</v>
       </c>
       <c r="H25" t="n">
         <v>147.4283934324466</v>
       </c>
       <c r="I25" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>80.9659474384828</v>
       </c>
       <c r="S25" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24499,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>147.8142767156759</v>
       </c>
       <c r="V26" t="n">
-        <v>147.8142767156755</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>183.1891117048806</v>
       </c>
       <c r="T28" t="n">
-        <v>236.8250266956711</v>
+        <v>119.7437437231429</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>130.8974468047281</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>17.78846042958867</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>147.8142767156745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S31" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T31" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>255.8689465980514</v>
+        <v>53.16575891812997</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>226.700255924825</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>17.7884604295883</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>119.7437437231428</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -25083,19 +25083,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>48.45197007851451</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>226.7002559248249</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>147.8142767156758</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25365,10 +25365,10 @@
         <v>183.1891117048806</v>
       </c>
       <c r="T37" t="n">
-        <v>236.8250266956711</v>
+        <v>119.7437437231429</v>
       </c>
       <c r="U37" t="n">
-        <v>52.3011557413723</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>226.7002559248239</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>96.67443963873666</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>119.7437437231428</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H40" t="n">
         <v>147.4283934324466</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>73.0914323227023</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S40" t="n">
         <v>183.1891117048806</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>226.7002559248251</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>17.78846042958918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>183.1891117048806</v>
       </c>
       <c r="T43" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>18.02500624651859</v>
+        <v>182.2618529920248</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>226.7002559248251</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>226.7002559248247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.30115574137307</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>236.8250266956711</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>249.2767164206233</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>623723.8849211099</v>
+        <v>623723.88492111</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>623723.8849211098</v>
+        <v>623723.88492111</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>641758.7307232757</v>
+        <v>641758.7307232756</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>641758.7307232756</v>
+        <v>641758.7307232757</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>641758.7307232755</v>
+        <v>641758.7307232757</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>641758.7307232756</v>
+        <v>641758.7307232758</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>641758.7307232755</v>
+        <v>641758.7307232756</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>504935.4184006166</v>
+        <v>504935.4184006165</v>
       </c>
       <c r="C2" t="n">
         <v>504935.4184006166</v>
       </c>
       <c r="D2" t="n">
-        <v>504935.4184006164</v>
+        <v>504935.4184006165</v>
       </c>
       <c r="E2" t="n">
-        <v>448955.4346793953</v>
+        <v>448955.4346793955</v>
       </c>
       <c r="F2" t="n">
-        <v>448955.4346793955</v>
+        <v>448955.4346793954</v>
       </c>
       <c r="G2" t="n">
         <v>448955.4346793954</v>
@@ -26343,19 +26343,19 @@
         <v>463807.8694427051</v>
       </c>
       <c r="L2" t="n">
-        <v>463807.8694427052</v>
+        <v>463807.8694427051</v>
       </c>
       <c r="M2" t="n">
-        <v>463807.8694427051</v>
+        <v>463807.8694427049</v>
       </c>
       <c r="N2" t="n">
         <v>463807.8694427052</v>
       </c>
       <c r="O2" t="n">
-        <v>463807.8694427051</v>
+        <v>463807.8694427049</v>
       </c>
       <c r="P2" t="n">
-        <v>463807.8694427052</v>
+        <v>463807.8694427049</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45948.62261588479</v>
+        <v>45948.6226158848</v>
       </c>
       <c r="J3" t="n">
         <v>136594.8008058949</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006827</v>
+        <v>160358.4505006826</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193745.821255793</v>
+        <v>193745.8212557931</v>
       </c>
       <c r="C4" t="n">
         <v>193745.8212557931</v>
@@ -26441,7 +26441,7 @@
         <v>59023.65497279318</v>
       </c>
       <c r="J4" t="n">
-        <v>59023.65497279318</v>
+        <v>59023.65497279317</v>
       </c>
       <c r="K4" t="n">
         <v>59023.65497279317</v>
@@ -26450,7 +26450,7 @@
         <v>59023.65497279318</v>
       </c>
       <c r="M4" t="n">
-        <v>59023.65497279318</v>
+        <v>59023.65497279317</v>
       </c>
       <c r="N4" t="n">
         <v>59023.65497279318</v>
@@ -26459,7 +26459,7 @@
         <v>59023.65497279317</v>
       </c>
       <c r="P4" t="n">
-        <v>59023.65497279318</v>
+        <v>59023.65497279317</v>
       </c>
     </row>
     <row r="5">
@@ -26496,10 +26496,10 @@
         <v>74967.83978868563</v>
       </c>
       <c r="K5" t="n">
+        <v>74967.83978868563</v>
+      </c>
+      <c r="L5" t="n">
         <v>74967.83978868564</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74967.83978868563</v>
       </c>
       <c r="M5" t="n">
         <v>74967.83978868563</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70865.02217321194</v>
+        <v>70865.02217321176</v>
       </c>
       <c r="C6" t="n">
-        <v>245820.532066326</v>
+        <v>245820.5320663259</v>
       </c>
       <c r="D6" t="n">
-        <v>245820.5320663257</v>
+        <v>245820.5320663259</v>
       </c>
       <c r="E6" t="n">
-        <v>126313.3503772569</v>
+        <v>126132.7697846079</v>
       </c>
       <c r="F6" t="n">
-        <v>318443.1132767002</v>
+        <v>318262.532684051</v>
       </c>
       <c r="G6" t="n">
-        <v>318443.1132767001</v>
+        <v>318262.532684051</v>
       </c>
       <c r="H6" t="n">
-        <v>318443.1132767001</v>
+        <v>318262.532684051</v>
       </c>
       <c r="I6" t="n">
-        <v>283867.7520653416</v>
+        <v>283735.0825525741</v>
       </c>
       <c r="J6" t="n">
-        <v>193221.5738753314</v>
+        <v>193088.9043625639</v>
       </c>
       <c r="K6" t="n">
-        <v>329816.3746812263</v>
+        <v>329683.7051684589</v>
       </c>
       <c r="L6" t="n">
-        <v>329816.3746812264</v>
+        <v>329683.7051684589</v>
       </c>
       <c r="M6" t="n">
-        <v>169457.9241805436</v>
+        <v>169325.254667776</v>
       </c>
       <c r="N6" t="n">
-        <v>329816.3746812263</v>
+        <v>329683.7051684589</v>
       </c>
       <c r="O6" t="n">
-        <v>329816.3746812263</v>
+        <v>329683.7051684586</v>
       </c>
       <c r="P6" t="n">
-        <v>329816.3746812264</v>
+        <v>329683.7051684587</v>
       </c>
     </row>
   </sheetData>
@@ -26758,22 +26758,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812871</v>
+        <v>42.59940676812873</v>
       </c>
       <c r="J3" t="n">
-        <v>42.59940676812871</v>
+        <v>42.59940676812873</v>
       </c>
       <c r="K3" t="n">
-        <v>42.59940676812871</v>
+        <v>42.59940676812873</v>
       </c>
       <c r="L3" t="n">
-        <v>42.59940676812871</v>
+        <v>42.59940676812873</v>
       </c>
       <c r="M3" t="n">
-        <v>42.59940676812871</v>
+        <v>42.59940676812873</v>
       </c>
       <c r="N3" t="n">
-        <v>42.59940676812871</v>
+        <v>42.59940676812873</v>
       </c>
       <c r="O3" t="n">
         <v>42.59940676812871</v>
@@ -26816,10 +26816,10 @@
         <v>1217.749551334546</v>
       </c>
       <c r="K4" t="n">
+        <v>1217.749551334546</v>
+      </c>
+      <c r="L4" t="n">
         <v>1217.749551334547</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1217.749551334546</v>
       </c>
       <c r="M4" t="n">
         <v>1217.749551334546</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812871</v>
+        <v>42.59940676812873</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627594</v>
+        <v>643.4826507627591</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>256.4669796577288</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>331.6603217932931</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -27551,7 +27551,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>86.37281234655237</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>57.69725362625988</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>149.0507926590307</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>101.3469562700498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.079883790672739</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -27791,10 +27791,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,19 +27824,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>107.616713260844</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>11.75949205792756</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>154.7174346845121</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28022,10 +28022,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>146.7620806741666</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -32703,46 +32703,46 @@
         <v>0.1712538965552912</v>
       </c>
       <c r="H23" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096877</v>
       </c>
       <c r="I23" t="n">
-        <v>6.602265846947869</v>
+        <v>6.602265846947872</v>
       </c>
       <c r="J23" t="n">
         <v>14.53496040275966</v>
       </c>
       <c r="K23" t="n">
-        <v>21.78413784394514</v>
+        <v>21.78413784394515</v>
       </c>
       <c r="L23" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064915</v>
       </c>
       <c r="M23" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351431</v>
       </c>
       <c r="N23" t="n">
-        <v>30.55726089710202</v>
+        <v>30.55726089710203</v>
       </c>
       <c r="O23" t="n">
-        <v>28.85435496323034</v>
+        <v>28.85435496323035</v>
       </c>
       <c r="P23" t="n">
-        <v>24.62652439202158</v>
+        <v>24.62652439202159</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.49349422163521</v>
+        <v>18.49349422163522</v>
       </c>
       <c r="R23" t="n">
         <v>10.75752757949132</v>
       </c>
       <c r="S23" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753703</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7496639321707874</v>
+        <v>0.7496639321707879</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.0137003117244233</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0916289126710693</v>
+        <v>0.09162891267106935</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8849423934284852</v>
+        <v>0.8849423934284857</v>
       </c>
       <c r="I24" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017081</v>
       </c>
       <c r="J24" t="n">
-        <v>8.656922841436421</v>
+        <v>8.656922841436426</v>
       </c>
       <c r="K24" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039807</v>
       </c>
       <c r="L24" t="n">
-        <v>19.89512860430389</v>
+        <v>19.8951286043039</v>
       </c>
       <c r="M24" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863016</v>
       </c>
       <c r="N24" t="n">
-        <v>23.83115303720061</v>
+        <v>23.83115303720062</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538377</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49710350821498</v>
+        <v>17.49710350821499</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622282</v>
       </c>
       <c r="R24" t="n">
-        <v>5.689030209524813</v>
+        <v>5.689030209524817</v>
       </c>
       <c r="S24" t="n">
-        <v>1.701966864745519</v>
+        <v>1.70196686474552</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3693288190557573</v>
+        <v>0.3693288190557574</v>
       </c>
       <c r="U24" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886144</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07681860236875668</v>
+        <v>0.07681860236875672</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6829872101513099</v>
+        <v>0.6829872101513103</v>
       </c>
       <c r="I25" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507703</v>
       </c>
       <c r="J25" t="n">
-        <v>5.431075187471097</v>
+        <v>5.4310751874711</v>
       </c>
       <c r="K25" t="n">
-        <v>8.924924893388274</v>
+        <v>8.924924893388278</v>
       </c>
       <c r="L25" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944225</v>
       </c>
       <c r="M25" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N25" t="n">
         <v>11.75534121521166</v>
@@ -32885,22 +32885,22 @@
         <v>10.85796026935845</v>
       </c>
       <c r="P25" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035809</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.432510421987435</v>
+        <v>6.432510421987438</v>
       </c>
       <c r="R25" t="n">
-        <v>3.454043702871549</v>
+        <v>3.454043702871551</v>
       </c>
       <c r="S25" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008242</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937786</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00419010558375037</v>
+        <v>0.004190105583750371</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,46 +32940,46 @@
         <v>0.1712538965552912</v>
       </c>
       <c r="H26" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096877</v>
       </c>
       <c r="I26" t="n">
-        <v>6.602265846947869</v>
+        <v>6.602265846947872</v>
       </c>
       <c r="J26" t="n">
         <v>14.53496040275966</v>
       </c>
       <c r="K26" t="n">
-        <v>21.78413784394514</v>
+        <v>21.78413784394515</v>
       </c>
       <c r="L26" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064915</v>
       </c>
       <c r="M26" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351431</v>
       </c>
       <c r="N26" t="n">
-        <v>30.55726089710202</v>
+        <v>30.55726089710203</v>
       </c>
       <c r="O26" t="n">
-        <v>28.85435496323034</v>
+        <v>28.85435496323035</v>
       </c>
       <c r="P26" t="n">
-        <v>24.62652439202158</v>
+        <v>24.62652439202159</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.49349422163521</v>
+        <v>18.49349422163522</v>
       </c>
       <c r="R26" t="n">
         <v>10.75752757949132</v>
       </c>
       <c r="S26" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753703</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7496639321707874</v>
+        <v>0.7496639321707879</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.0137003117244233</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0916289126710693</v>
+        <v>0.09162891267106935</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8849423934284852</v>
+        <v>0.8849423934284857</v>
       </c>
       <c r="I27" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017081</v>
       </c>
       <c r="J27" t="n">
-        <v>8.656922841436421</v>
+        <v>8.656922841436426</v>
       </c>
       <c r="K27" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039807</v>
       </c>
       <c r="L27" t="n">
-        <v>19.89512860430389</v>
+        <v>19.8951286043039</v>
       </c>
       <c r="M27" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863016</v>
       </c>
       <c r="N27" t="n">
-        <v>23.83115303720061</v>
+        <v>23.83115303720062</v>
       </c>
       <c r="O27" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538377</v>
       </c>
       <c r="P27" t="n">
-        <v>17.49710350821498</v>
+        <v>17.49710350821499</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622282</v>
       </c>
       <c r="R27" t="n">
-        <v>5.689030209524813</v>
+        <v>5.689030209524817</v>
       </c>
       <c r="S27" t="n">
-        <v>1.701966864745519</v>
+        <v>1.70196686474552</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3693288190557573</v>
+        <v>0.3693288190557574</v>
       </c>
       <c r="U27" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886144</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07681860236875668</v>
+        <v>0.07681860236875672</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6829872101513099</v>
+        <v>0.6829872101513103</v>
       </c>
       <c r="I28" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507703</v>
       </c>
       <c r="J28" t="n">
-        <v>5.431075187471097</v>
+        <v>5.4310751874711</v>
       </c>
       <c r="K28" t="n">
-        <v>8.924924893388274</v>
+        <v>8.924924893388278</v>
       </c>
       <c r="L28" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944225</v>
       </c>
       <c r="M28" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N28" t="n">
         <v>11.75534121521166</v>
@@ -33122,22 +33122,22 @@
         <v>10.85796026935845</v>
       </c>
       <c r="P28" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035809</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.432510421987435</v>
+        <v>6.432510421987438</v>
       </c>
       <c r="R28" t="n">
-        <v>3.454043702871549</v>
+        <v>3.454043702871551</v>
       </c>
       <c r="S28" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008242</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937786</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00419010558375037</v>
+        <v>0.004190105583750371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,46 +33177,46 @@
         <v>0.1712538965552912</v>
       </c>
       <c r="H29" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096877</v>
       </c>
       <c r="I29" t="n">
-        <v>6.602265846947869</v>
+        <v>6.602265846947872</v>
       </c>
       <c r="J29" t="n">
         <v>14.53496040275966</v>
       </c>
       <c r="K29" t="n">
-        <v>21.78413784394514</v>
+        <v>21.78413784394515</v>
       </c>
       <c r="L29" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064915</v>
       </c>
       <c r="M29" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351431</v>
       </c>
       <c r="N29" t="n">
-        <v>30.55726089710202</v>
+        <v>30.55726089710203</v>
       </c>
       <c r="O29" t="n">
-        <v>28.85435496323034</v>
+        <v>28.85435496323035</v>
       </c>
       <c r="P29" t="n">
-        <v>24.62652439202158</v>
+        <v>24.62652439202159</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.49349422163521</v>
+        <v>18.49349422163522</v>
       </c>
       <c r="R29" t="n">
         <v>10.75752757949132</v>
       </c>
       <c r="S29" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753703</v>
       </c>
       <c r="T29" t="n">
-        <v>0.7496639321707874</v>
+        <v>0.7496639321707879</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.0137003117244233</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0916289126710693</v>
+        <v>0.09162891267106935</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8849423934284852</v>
+        <v>0.8849423934284857</v>
       </c>
       <c r="I30" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017081</v>
       </c>
       <c r="J30" t="n">
-        <v>8.656922841436421</v>
+        <v>8.656922841436426</v>
       </c>
       <c r="K30" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039807</v>
       </c>
       <c r="L30" t="n">
-        <v>19.89512860430389</v>
+        <v>19.8951286043039</v>
       </c>
       <c r="M30" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863016</v>
       </c>
       <c r="N30" t="n">
-        <v>23.83115303720061</v>
+        <v>23.83115303720062</v>
       </c>
       <c r="O30" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538377</v>
       </c>
       <c r="P30" t="n">
-        <v>17.49710350821498</v>
+        <v>17.49710350821499</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622282</v>
       </c>
       <c r="R30" t="n">
-        <v>5.689030209524813</v>
+        <v>5.689030209524817</v>
       </c>
       <c r="S30" t="n">
-        <v>1.701966864745519</v>
+        <v>1.70196686474552</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3693288190557573</v>
+        <v>0.3693288190557574</v>
       </c>
       <c r="U30" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886144</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07681860236875668</v>
+        <v>0.07681860236875672</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6829872101513099</v>
+        <v>0.6829872101513103</v>
       </c>
       <c r="I31" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507703</v>
       </c>
       <c r="J31" t="n">
-        <v>5.431075187471097</v>
+        <v>5.4310751874711</v>
       </c>
       <c r="K31" t="n">
-        <v>8.924924893388274</v>
+        <v>8.924924893388278</v>
       </c>
       <c r="L31" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944225</v>
       </c>
       <c r="M31" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N31" t="n">
         <v>11.75534121521166</v>
@@ -33359,22 +33359,22 @@
         <v>10.85796026935845</v>
       </c>
       <c r="P31" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035809</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.432510421987435</v>
+        <v>6.432510421987438</v>
       </c>
       <c r="R31" t="n">
-        <v>3.454043702871549</v>
+        <v>3.454043702871551</v>
       </c>
       <c r="S31" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008242</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937786</v>
       </c>
       <c r="U31" t="n">
-        <v>0.00419010558375037</v>
+        <v>0.004190105583750371</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,46 +33414,46 @@
         <v>0.1712538965552912</v>
       </c>
       <c r="H32" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096877</v>
       </c>
       <c r="I32" t="n">
-        <v>6.602265846947869</v>
+        <v>6.602265846947872</v>
       </c>
       <c r="J32" t="n">
         <v>14.53496040275966</v>
       </c>
       <c r="K32" t="n">
-        <v>21.78413784394514</v>
+        <v>21.78413784394515</v>
       </c>
       <c r="L32" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064915</v>
       </c>
       <c r="M32" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351431</v>
       </c>
       <c r="N32" t="n">
-        <v>30.55726089710202</v>
+        <v>30.55726089710203</v>
       </c>
       <c r="O32" t="n">
-        <v>28.85435496323034</v>
+        <v>28.85435496323035</v>
       </c>
       <c r="P32" t="n">
-        <v>24.62652439202158</v>
+        <v>24.62652439202159</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.49349422163521</v>
+        <v>18.49349422163522</v>
       </c>
       <c r="R32" t="n">
         <v>10.75752757949132</v>
       </c>
       <c r="S32" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753703</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7496639321707874</v>
+        <v>0.7496639321707879</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.0137003117244233</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0916289126710693</v>
+        <v>0.09162891267106935</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8849423934284852</v>
+        <v>0.8849423934284857</v>
       </c>
       <c r="I33" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017081</v>
       </c>
       <c r="J33" t="n">
-        <v>8.656922841436421</v>
+        <v>8.656922841436426</v>
       </c>
       <c r="K33" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039807</v>
       </c>
       <c r="L33" t="n">
-        <v>19.89512860430389</v>
+        <v>19.8951286043039</v>
       </c>
       <c r="M33" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863016</v>
       </c>
       <c r="N33" t="n">
-        <v>23.83115303720061</v>
+        <v>23.83115303720062</v>
       </c>
       <c r="O33" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538377</v>
       </c>
       <c r="P33" t="n">
-        <v>17.49710350821498</v>
+        <v>17.49710350821499</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622282</v>
       </c>
       <c r="R33" t="n">
-        <v>5.689030209524813</v>
+        <v>5.689030209524817</v>
       </c>
       <c r="S33" t="n">
-        <v>1.701966864745519</v>
+        <v>1.70196686474552</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3693288190557573</v>
+        <v>0.3693288190557574</v>
       </c>
       <c r="U33" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886144</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07681860236875668</v>
+        <v>0.07681860236875672</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6829872101513099</v>
+        <v>0.6829872101513103</v>
       </c>
       <c r="I34" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507703</v>
       </c>
       <c r="J34" t="n">
-        <v>5.431075187471097</v>
+        <v>5.4310751874711</v>
       </c>
       <c r="K34" t="n">
-        <v>8.924924893388274</v>
+        <v>8.924924893388278</v>
       </c>
       <c r="L34" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944225</v>
       </c>
       <c r="M34" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N34" t="n">
         <v>11.75534121521166</v>
@@ -33596,22 +33596,22 @@
         <v>10.85796026935845</v>
       </c>
       <c r="P34" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035809</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.432510421987435</v>
+        <v>6.432510421987438</v>
       </c>
       <c r="R34" t="n">
-        <v>3.454043702871549</v>
+        <v>3.454043702871551</v>
       </c>
       <c r="S34" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008242</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937786</v>
       </c>
       <c r="U34" t="n">
-        <v>0.00419010558375037</v>
+        <v>0.004190105583750371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>0.1712538965552912</v>
       </c>
       <c r="H35" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096877</v>
       </c>
       <c r="I35" t="n">
-        <v>6.602265846947869</v>
+        <v>6.602265846947872</v>
       </c>
       <c r="J35" t="n">
         <v>14.53496040275966</v>
       </c>
       <c r="K35" t="n">
-        <v>21.78413784394514</v>
+        <v>21.78413784394515</v>
       </c>
       <c r="L35" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064915</v>
       </c>
       <c r="M35" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351431</v>
       </c>
       <c r="N35" t="n">
-        <v>30.55726089710202</v>
+        <v>30.55726089710203</v>
       </c>
       <c r="O35" t="n">
-        <v>28.85435496323034</v>
+        <v>28.85435496323035</v>
       </c>
       <c r="P35" t="n">
-        <v>24.62652439202158</v>
+        <v>24.62652439202159</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.49349422163521</v>
+        <v>18.49349422163522</v>
       </c>
       <c r="R35" t="n">
         <v>10.75752757949132</v>
       </c>
       <c r="S35" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753703</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7496639321707874</v>
+        <v>0.7496639321707879</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.0137003117244233</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0916289126710693</v>
+        <v>0.09162891267106935</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8849423934284852</v>
+        <v>0.8849423934284857</v>
       </c>
       <c r="I36" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017081</v>
       </c>
       <c r="J36" t="n">
-        <v>8.656922841436421</v>
+        <v>8.656922841436426</v>
       </c>
       <c r="K36" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039807</v>
       </c>
       <c r="L36" t="n">
-        <v>19.89512860430389</v>
+        <v>19.8951286043039</v>
       </c>
       <c r="M36" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863016</v>
       </c>
       <c r="N36" t="n">
-        <v>23.83115303720061</v>
+        <v>23.83115303720062</v>
       </c>
       <c r="O36" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538377</v>
       </c>
       <c r="P36" t="n">
-        <v>17.49710350821498</v>
+        <v>17.49710350821499</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622282</v>
       </c>
       <c r="R36" t="n">
-        <v>5.689030209524813</v>
+        <v>5.689030209524817</v>
       </c>
       <c r="S36" t="n">
-        <v>1.701966864745519</v>
+        <v>1.70196686474552</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3693288190557573</v>
+        <v>0.3693288190557574</v>
       </c>
       <c r="U36" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886144</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07681860236875668</v>
+        <v>0.07681860236875672</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6829872101513099</v>
+        <v>0.6829872101513103</v>
       </c>
       <c r="I37" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507703</v>
       </c>
       <c r="J37" t="n">
-        <v>5.431075187471097</v>
+        <v>5.4310751874711</v>
       </c>
       <c r="K37" t="n">
-        <v>8.924924893388274</v>
+        <v>8.924924893388278</v>
       </c>
       <c r="L37" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944225</v>
       </c>
       <c r="M37" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N37" t="n">
         <v>11.75534121521166</v>
@@ -33833,22 +33833,22 @@
         <v>10.85796026935845</v>
       </c>
       <c r="P37" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035809</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.432510421987435</v>
+        <v>6.432510421987438</v>
       </c>
       <c r="R37" t="n">
-        <v>3.454043702871549</v>
+        <v>3.454043702871551</v>
       </c>
       <c r="S37" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008242</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937786</v>
       </c>
       <c r="U37" t="n">
-        <v>0.00419010558375037</v>
+        <v>0.004190105583750371</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>0.1712538965552912</v>
       </c>
       <c r="H38" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096877</v>
       </c>
       <c r="I38" t="n">
-        <v>6.602265846947869</v>
+        <v>6.602265846947872</v>
       </c>
       <c r="J38" t="n">
         <v>14.53496040275966</v>
       </c>
       <c r="K38" t="n">
-        <v>21.78413784394514</v>
+        <v>21.78413784394515</v>
       </c>
       <c r="L38" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064915</v>
       </c>
       <c r="M38" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351431</v>
       </c>
       <c r="N38" t="n">
-        <v>30.55726089710202</v>
+        <v>30.55726089710203</v>
       </c>
       <c r="O38" t="n">
-        <v>28.85435496323034</v>
+        <v>28.85435496323035</v>
       </c>
       <c r="P38" t="n">
-        <v>24.62652439202158</v>
+        <v>24.62652439202159</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.49349422163521</v>
+        <v>18.49349422163522</v>
       </c>
       <c r="R38" t="n">
         <v>10.75752757949132</v>
       </c>
       <c r="S38" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753703</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7496639321707874</v>
+        <v>0.7496639321707879</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.0137003117244233</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0916289126710693</v>
+        <v>0.09162891267106935</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8849423934284852</v>
+        <v>0.8849423934284857</v>
       </c>
       <c r="I39" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017081</v>
       </c>
       <c r="J39" t="n">
-        <v>8.656922841436421</v>
+        <v>8.656922841436426</v>
       </c>
       <c r="K39" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039807</v>
       </c>
       <c r="L39" t="n">
-        <v>19.89512860430389</v>
+        <v>19.8951286043039</v>
       </c>
       <c r="M39" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863016</v>
       </c>
       <c r="N39" t="n">
-        <v>23.83115303720061</v>
+        <v>23.83115303720062</v>
       </c>
       <c r="O39" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538377</v>
       </c>
       <c r="P39" t="n">
-        <v>17.49710350821498</v>
+        <v>17.49710350821499</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622282</v>
       </c>
       <c r="R39" t="n">
-        <v>5.689030209524813</v>
+        <v>5.689030209524817</v>
       </c>
       <c r="S39" t="n">
-        <v>1.701966864745519</v>
+        <v>1.70196686474552</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3693288190557573</v>
+        <v>0.3693288190557574</v>
       </c>
       <c r="U39" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886144</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07681860236875668</v>
+        <v>0.07681860236875672</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6829872101513099</v>
+        <v>0.6829872101513103</v>
       </c>
       <c r="I40" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507703</v>
       </c>
       <c r="J40" t="n">
-        <v>5.431075187471097</v>
+        <v>5.4310751874711</v>
       </c>
       <c r="K40" t="n">
-        <v>8.924924893388274</v>
+        <v>8.924924893388278</v>
       </c>
       <c r="L40" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944225</v>
       </c>
       <c r="M40" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N40" t="n">
         <v>11.75534121521166</v>
@@ -34070,22 +34070,22 @@
         <v>10.85796026935845</v>
       </c>
       <c r="P40" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035809</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.432510421987435</v>
+        <v>6.432510421987438</v>
       </c>
       <c r="R40" t="n">
-        <v>3.454043702871549</v>
+        <v>3.454043702871551</v>
       </c>
       <c r="S40" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008242</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937786</v>
       </c>
       <c r="U40" t="n">
-        <v>0.00419010558375037</v>
+        <v>0.004190105583750371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491206</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
@@ -34953,13 +34953,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>506.6900639491204</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>135.5987266329975</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
+        <v>244.2170912967376</v>
+      </c>
+      <c r="N8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>179.3869557635729</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>473.6101143363514</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N15" t="n">
-        <v>542.304428641741</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>607.3967217347663</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>746.8144420202834</v>
       </c>
       <c r="M23" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N23" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O23" t="n">
         <v>678.9865331623262</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>279.8033285417088</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>874.7086773902126</v>
       </c>
       <c r="N24" t="n">
-        <v>906.3140743620671</v>
+        <v>88.1741879584545</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>732.8686174635599</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,10 +36603,10 @@
         <v>746.8144420202834</v>
       </c>
       <c r="M26" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N26" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O26" t="n">
         <v>678.9865331623262</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>203.4173850259145</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>76.38594351579428</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>687.6609588258071</v>
       </c>
       <c r="M27" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>313.0819087232767</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,10 +36840,10 @@
         <v>746.8144420202834</v>
       </c>
       <c r="M29" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N29" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O29" t="n">
         <v>678.9865331623262</v>
@@ -36913,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>600.1211394915046</v>
       </c>
       <c r="M30" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>279.8033285417088</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.54713057581764</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37077,10 +37077,10 @@
         <v>746.8144420202834</v>
       </c>
       <c r="M32" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N32" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O32" t="n">
         <v>678.9865331623262</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>423.2137310958514</v>
       </c>
       <c r="L33" t="n">
-        <v>279.8033285417088</v>
+        <v>687.6609588258071</v>
       </c>
       <c r="M33" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,10 +37314,10 @@
         <v>746.8144420202834</v>
       </c>
       <c r="M35" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N35" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O35" t="n">
         <v>678.9865331623262</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M36" t="n">
-        <v>569.6352130413527</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>584.8767928905686</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.54713057581764</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,10 +37551,10 @@
         <v>746.8144420202834</v>
       </c>
       <c r="M38" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N38" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O38" t="n">
         <v>678.9865331623262</v>
@@ -37627,10 +37627,10 @@
         <v>475.2064198543362</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>687.6609588258071</v>
       </c>
       <c r="M39" t="n">
-        <v>852.7510429760923</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>732.8686174635599</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>165.0900841502853</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37721,7 +37721,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>746.8144420202834</v>
       </c>
       <c r="M41" t="n">
-        <v>814.2308786844771</v>
+        <v>814.2308786844778</v>
       </c>
       <c r="N41" t="n">
         <v>791.3461665926757</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M42" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>236.1660125314458</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>584.8767928905686</v>
@@ -37882,7 +37882,7 @@
         <v>365.0745974817615</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.54713057581764</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R44" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682869</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K45" t="n">
         <v>475.2064198543362</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M45" t="n">
-        <v>852.7510429760923</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.54713057581764</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
